--- a/docs/requirements/Master Data Tables - Test Data/master-doc_category.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-doc_category.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Master DB\Master Data Sample\xls Version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
   <si>
     <t>code</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>Preuve de la date de naissance de la personne</t>
+  </si>
+  <si>
+    <t>POE</t>
+  </si>
+  <si>
+    <t>Proof of Biometric Exception</t>
+  </si>
+  <si>
+    <t>دليل استثناء البيومترية</t>
+  </si>
+  <si>
+    <t>Preuve dexception biométrique</t>
   </si>
 </sst>
 </file>
@@ -976,9 +988,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1281,7 +1295,77 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/requirements/Master Data Tables - Test Data/master-doc_category.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-doc_category.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{05450EFC-8EC2-43F4-8908-1201756D5ED5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master-doc_category" sheetId="1" r:id="rId1"/>
@@ -153,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -987,11 +988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD1048576"/>
+      <selection activeCell="H1" sqref="H1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1240,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1263,7 +1264,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -1286,7 +1287,7 @@
         <v>18</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
